--- a/experimental-setup/04.04 cylinder-volumes.xlsx
+++ b/experimental-setup/04.04 cylinder-volumes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Desktop\master\experimental-setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DDC52F-5A52-4DE4-9612-2DC5AECFD886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F05FD5-6AE8-4012-A8C0-055F6FFBD233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +409,7 @@
         <v>0.15</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0" xml:space="preserve"> 9.5 * A3</f>
+        <f t="shared" ref="C3:C13" si="0" xml:space="preserve"> 9.5 * A3</f>
         <v>1.425</v>
       </c>
       <c r="E3">
@@ -538,6 +538,33 @@
       <c r="G10">
         <f t="shared" si="2"/>
         <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5.2250000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.65</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>6.1749999999999998</v>
       </c>
     </row>
   </sheetData>
